--- a/biology/Zoologie/Hyetornis/Hyetornis.xlsx
+++ b/biology/Zoologie/Hyetornis/Hyetornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hyetornis est un genre obsolète d'oiseaux de la famille des Cuculidae, qui comprenait deux espèces de piayes. Depuis 2006, ces espèces sont classées dans le genre Coccyzus. Elles sont endémiques des Grandes Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS :
 Hyetornis pluvialis (Gmelin, 1788) — Piaye de pluie
